--- a/src/analysis_examples/circadipy/results_circadipy/sine_0.5/cosinor_per_day_fixed_period_6_sine_0.5_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sine_0.5/cosinor_per_day_fixed_period_6_sine_0.5_.xlsx
@@ -581,69 +581,69 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>25.99000000000062</v>
+        <v>25.66000000000057</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0005547678390311894</v>
+        <v>4.33450846029082e-05</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0005547678390311894</v>
+        <v>4.33450846029082e-05</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>44.20131556844138</v>
+        <v>48.67481866116682</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[16.486686141174445, 71.91594499570832]</t>
+          <t>[26.28859745358899, 71.06103986874466]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>0.002434556924754139</v>
+        <v>7.025854592312974e-05</v>
       </c>
       <c r="O2" t="n">
-        <v>0.002434556924754139</v>
+        <v>7.025854592312974e-05</v>
       </c>
       <c r="P2" t="n">
-        <v>1.805079262422964</v>
+        <v>1.616395018964117</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[1.0503422885875793, 2.5598162362583494]</t>
+          <t>[1.0000264903318854, 2.232763547596349]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>1.687194615995757e-05</v>
+        <v>3.579216438565069e-06</v>
       </c>
       <c r="S2" t="n">
-        <v>1.687194615995757e-05</v>
+        <v>3.579216438565069e-06</v>
       </c>
       <c r="T2" t="n">
-        <v>66.09746952643218</v>
+        <v>64.18974815894937</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[50.48562613203095, 81.70931292083341]</t>
+          <t>[49.937325236121225, 78.44217108177752]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>5.963896043681416e-11</v>
+        <v>1.005928673691869e-11</v>
       </c>
       <c r="W2" t="n">
-        <v>5.963896043681416e-11</v>
+        <v>1.005928673691869e-11</v>
       </c>
       <c r="X2" t="n">
-        <v>18.52340340340385</v>
+        <v>19.05877877877921</v>
       </c>
       <c r="Y2" t="n">
-        <v>15.40148148148185</v>
+        <v>16.54158158158195</v>
       </c>
       <c r="Z2" t="n">
-        <v>21.64532532532584</v>
+        <v>21.57597597597646</v>
       </c>
     </row>
     <row r="3">
@@ -667,69 +667,69 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>25.99000000000062</v>
+        <v>25.66000000000057</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0001061800708025418</v>
+        <v>8.549548495495607e-06</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0001061800708025418</v>
+        <v>8.549548495495607e-06</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>42.99391064444411</v>
+        <v>54.00960579105124</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[19.005772554497884, 66.98204873439035]</t>
+          <t>[27.907523110053702, 80.11168847204877]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>0.0007665321565211158</v>
+        <v>0.0001379562071093243</v>
       </c>
       <c r="O3" t="n">
-        <v>0.0007665321565211158</v>
+        <v>0.0001379562071093243</v>
       </c>
       <c r="P3" t="n">
-        <v>0.9371317425122712</v>
+        <v>1.025184389459733</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[0.37107901213573147, 1.5031844728888109]</t>
+          <t>[0.5471843060306547, 1.5031844728888117]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>0.001718300101011039</v>
+        <v>8.50422465028533e-05</v>
       </c>
       <c r="S3" t="n">
-        <v>0.001718300101011039</v>
+        <v>8.50422465028533e-05</v>
       </c>
       <c r="T3" t="n">
-        <v>63.20392393574959</v>
+        <v>63.03400959557922</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[50.44063366543298, 75.96721420606619]</t>
+          <t>[49.1128793830965, 76.95513980806194]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>5.644373857194296e-13</v>
+        <v>8.591793942969161e-12</v>
       </c>
       <c r="W3" t="n">
-        <v>5.644373857194296e-13</v>
+        <v>8.591793942969161e-12</v>
       </c>
       <c r="X3" t="n">
-        <v>22.11361361361414</v>
+        <v>21.47323323323371</v>
       </c>
       <c r="Y3" t="n">
-        <v>19.77217217217264</v>
+        <v>19.52112112112155</v>
       </c>
       <c r="Z3" t="n">
-        <v>24.45505505505564</v>
+        <v>23.42534534534587</v>
       </c>
     </row>
     <row r="4">
@@ -737,7 +737,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -753,69 +753,69 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>25.99000000000062</v>
+        <v>25.66000000000057</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>1.309852565190006e-06</v>
+        <v>0.001168612257352875</v>
       </c>
       <c r="I4" t="n">
-        <v>1.309852565190006e-06</v>
+        <v>0.001168612257352875</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>56.14246417832017</v>
+        <v>48.7723248806798</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[32.77141743939198, 79.51351091724835]</t>
+          <t>[15.618000278754835, 81.92664948260477]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>1.572789586612444e-05</v>
+        <v>0.004855768529598681</v>
       </c>
       <c r="O4" t="n">
-        <v>1.572789586612444e-05</v>
+        <v>0.004855768529598681</v>
       </c>
       <c r="P4" t="n">
-        <v>0.5220264069028087</v>
+        <v>0.6226580034141929</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[0.06918422260157708, 0.9748685912040402]</t>
+          <t>[-0.04402632347373192, 1.2893423303021176]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>0.02482761372062625</v>
+        <v>0.0664384078697613</v>
       </c>
       <c r="S4" t="n">
-        <v>0.02482761372062625</v>
+        <v>0.0664384078697613</v>
       </c>
       <c r="T4" t="n">
-        <v>70.93554380167875</v>
+        <v>66.14079226520606</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[58.2987551035093, 83.57233249984819]</t>
+          <t>[49.08626308430509, 83.19532144610703]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>9.769962616701378e-15</v>
+        <v>6.501410521053685e-10</v>
       </c>
       <c r="W4" t="n">
-        <v>9.769962616701378e-15</v>
+        <v>6.501410521053685e-10</v>
       </c>
       <c r="X4" t="n">
-        <v>23.83067067067124</v>
+        <v>23.11711711711763</v>
       </c>
       <c r="Y4" t="n">
-        <v>21.95751751751805</v>
+        <v>20.39443443443489</v>
       </c>
       <c r="Z4" t="n">
-        <v>25.70382382382444</v>
+        <v>25.83979979980038</v>
       </c>
     </row>
     <row r="5">
@@ -839,69 +839,69 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>25.99000000000062</v>
+        <v>25.66000000000057</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0.02216678999109212</v>
+        <v>0.01444873099678223</v>
       </c>
       <c r="I5" t="n">
-        <v>0.02216678999109212</v>
+        <v>0.01444873099678223</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>27.72052611858608</v>
+        <v>33.51829432283844</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[1.5423355463587853, 53.89871669081337]</t>
+          <t>[7.757109277709347, 59.279479367967525]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0.0384338451185029</v>
+        <v>0.01192807554714137</v>
       </c>
       <c r="O5" t="n">
-        <v>0.0384338451185029</v>
+        <v>0.01192807554714137</v>
       </c>
       <c r="P5" t="n">
-        <v>0.7232895999255788</v>
+        <v>-0.0503157982556921</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[-0.08176317216549833, 1.528342372016656]</t>
+          <t>[-1.0880791372793475, 0.9874475407679633]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>0.07704849183026452</v>
+        <v>0.9226411107125156</v>
       </c>
       <c r="S5" t="n">
-        <v>0.07704849183026452</v>
+        <v>0.9226411107125156</v>
       </c>
       <c r="T5" t="n">
-        <v>47.9573160015603</v>
+        <v>59.46103208626666</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[34.62244668898366, 61.292185314136944]</t>
+          <t>[44.25209829757221, 74.6699658749611]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>4.442921586189641e-09</v>
+        <v>5.254958690414924e-10</v>
       </c>
       <c r="W5" t="n">
-        <v>4.442921586189641e-09</v>
+        <v>5.254958690414924e-10</v>
       </c>
       <c r="X5" t="n">
-        <v>22.99815815815871</v>
+        <v>0.205485485485486</v>
       </c>
       <c r="Y5" t="n">
-        <v>19.66810810810858</v>
+        <v>-4.032652652652747</v>
       </c>
       <c r="Z5" t="n">
-        <v>26.32820820820883</v>
+        <v>4.443623623623719</v>
       </c>
     </row>
     <row r="6">
@@ -925,69 +925,69 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>25.99000000000062</v>
+        <v>25.66000000000057</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0.009499660959929823</v>
+        <v>1.961626787272408e-05</v>
       </c>
       <c r="I6" t="n">
-        <v>0.009499660959929823</v>
+        <v>1.961626787272408e-05</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>31.33019419605684</v>
+        <v>53.49175211627237</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[7.84570945943355, 54.81467893268014]</t>
+          <t>[28.759805889925588, 78.22369834261916]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>0.01006734589066638</v>
+        <v>7.566060806452057e-05</v>
       </c>
       <c r="O6" t="n">
-        <v>0.01006734589066638</v>
+        <v>7.566060806452057e-05</v>
       </c>
       <c r="P6" t="n">
-        <v>-0.08805264694746207</v>
+        <v>-0.2012631930227693</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[-1.0503422885875793, 0.8742369946926551]</t>
+          <t>[-0.7421580242714629, 0.33963163822592435]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>0.854608464941393</v>
+        <v>0.4574958517167738</v>
       </c>
       <c r="S6" t="n">
-        <v>0.854608464941393</v>
+        <v>0.4574958517167738</v>
       </c>
       <c r="T6" t="n">
-        <v>50.80140994431302</v>
+        <v>61.5182266431347</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[37.326362055189385, 64.27645783343667]</t>
+          <t>[47.36651856108428, 75.66993472518513]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>1.355973999750404e-09</v>
+        <v>2.815880861817277e-11</v>
       </c>
       <c r="W6" t="n">
-        <v>1.355973999750404e-09</v>
+        <v>2.815880861817277e-11</v>
       </c>
       <c r="X6" t="n">
-        <v>0.364224224224234</v>
+        <v>0.821941941941958</v>
       </c>
       <c r="Y6" t="n">
-        <v>-3.616226226226313</v>
+        <v>-1.387027027027063</v>
       </c>
       <c r="Z6" t="n">
-        <v>4.344674674674781</v>
+        <v>3.030910910910979</v>
       </c>
     </row>
     <row r="7">
@@ -995,7 +995,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1011,69 +1011,69 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>25.99000000000062</v>
+        <v>25.66000000000057</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>6.864720037713656e-05</v>
+        <v>0.000468459572188884</v>
       </c>
       <c r="I7" t="n">
-        <v>6.864720037713656e-05</v>
+        <v>0.000468459572188884</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>41.11815732731143</v>
+        <v>37.41273523372926</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[17.47349077386257, 64.7628238807603]</t>
+          <t>[14.566464674473096, 60.259005792985434]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>0.00105359525104709</v>
+        <v>0.00190630969592398</v>
       </c>
       <c r="O7" t="n">
-        <v>0.00105359525104709</v>
+        <v>0.00190630969592398</v>
       </c>
       <c r="P7" t="n">
-        <v>-0.9056843686024632</v>
+        <v>-0.3522105877898465</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[-1.4591581494150798, -0.3522105877898465]</t>
+          <t>[-1.0314738642416934, 0.32705268866200043]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>0.001919785224485882</v>
+        <v>0.3019014184586286</v>
       </c>
       <c r="S7" t="n">
-        <v>0.001919785224485882</v>
+        <v>0.3019014184586286</v>
       </c>
       <c r="T7" t="n">
-        <v>61.86734885007991</v>
+        <v>56.80067163485395</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[49.46875310179928, 74.26594459836053]</t>
+          <t>[44.45133259437655, 69.15001067533134]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>4.445332990599127e-13</v>
+        <v>5.394351632048711e-12</v>
       </c>
       <c r="W7" t="n">
-        <v>4.445332990599127e-13</v>
+        <v>5.394351632048711e-12</v>
       </c>
       <c r="X7" t="n">
-        <v>3.746306306306398</v>
+        <v>1.43839839839843</v>
       </c>
       <c r="Y7" t="n">
-        <v>1.456896896896931</v>
+        <v>-1.335655655655685</v>
       </c>
       <c r="Z7" t="n">
-        <v>6.035715715715864</v>
+        <v>4.212452452452546</v>
       </c>
     </row>
     <row r="8">
@@ -1097,69 +1097,69 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>25.99000000000062</v>
+        <v>25.66000000000057</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>1.824264240779527e-07</v>
+        <v>0.002331777581335404</v>
       </c>
       <c r="I8" t="n">
-        <v>1.824264240779527e-07</v>
+        <v>0.002331777581335404</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>51.4698638694072</v>
+        <v>32.26910646711382</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[31.6198664375532, 71.3198613012612]</t>
+          <t>[7.479599914520186, 57.058613019707444]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>4.371037928052601e-06</v>
+        <v>0.01189105925537914</v>
       </c>
       <c r="O8" t="n">
-        <v>4.371037928052601e-06</v>
+        <v>0.01189105925537914</v>
       </c>
       <c r="P8" t="n">
-        <v>-1.25789495639231</v>
+        <v>-0.8302106712189241</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[-1.6981581911296182, -0.8176317216550011]</t>
+          <t>[-1.484316048542925, -0.17610529389492324]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>7.214686643663981e-07</v>
+        <v>0.0140227501178205</v>
       </c>
       <c r="S8" t="n">
-        <v>7.214686643663981e-07</v>
+        <v>0.0140227501178205</v>
       </c>
       <c r="T8" t="n">
-        <v>56.88514500047786</v>
+        <v>67.8212786812839</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[45.416022592599546, 68.35426740835618]</t>
+          <t>[55.20870577714203, 80.43385158542577]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>5.371258993136507e-13</v>
+        <v>4.04121180963557e-14</v>
       </c>
       <c r="W8" t="n">
-        <v>5.371258993136507e-13</v>
+        <v>4.04121180963557e-14</v>
       </c>
       <c r="X8" t="n">
-        <v>5.20320320320333</v>
+        <v>3.390510510510584</v>
       </c>
       <c r="Y8" t="n">
-        <v>3.382082082082164</v>
+        <v>0.7191991991992137</v>
       </c>
       <c r="Z8" t="n">
-        <v>7.024324324324496</v>
+        <v>6.061821821821955</v>
       </c>
     </row>
     <row r="9">
@@ -1183,69 +1183,69 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>24.28000000000036</v>
+        <v>23.34000000000021</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0.001683666193891487</v>
+        <v>2.925909526330095e-06</v>
       </c>
       <c r="I9" t="n">
-        <v>0.001683666193891487</v>
+        <v>2.925909526330095e-06</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>32.07791898202514</v>
+        <v>44.75533326655705</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[11.956197888380593, 52.199640075669684]</t>
+          <t>[25.73233050386198, 63.778336029252124]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>0.002443985220754064</v>
+        <v>2.184983593522816e-05</v>
       </c>
       <c r="O9" t="n">
-        <v>0.002443985220754064</v>
+        <v>2.184983593522816e-05</v>
       </c>
       <c r="P9" t="n">
-        <v>-1.25789495639231</v>
+        <v>-1.295631805084079</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[-2.0252108797916186, -0.49057903299300065]</t>
+          <t>[-1.7736318885131563, -0.8176317216550011]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>0.001887086457659226</v>
+        <v>1.966704909817096e-06</v>
       </c>
       <c r="S9" t="n">
-        <v>0.001887086457659226</v>
+        <v>1.966704909817096e-06</v>
       </c>
       <c r="T9" t="n">
-        <v>58.30851802985742</v>
+        <v>64.4511484599544</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[46.35716626851848, 70.25986979119635]</t>
+          <t>[53.69304749628589, 75.20924942362291]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>8.972822485020515e-13</v>
+        <v>1.110223024625157e-15</v>
       </c>
       <c r="W9" t="n">
-        <v>8.972822485020515e-13</v>
+        <v>1.110223024625157e-15</v>
       </c>
       <c r="X9" t="n">
-        <v>4.860860860860932</v>
+        <v>4.812852852852895</v>
       </c>
       <c r="Y9" t="n">
-        <v>1.895735735735762</v>
+        <v>3.037237237237264</v>
       </c>
       <c r="Z9" t="n">
-        <v>7.825985985986101</v>
+        <v>6.588468468468527</v>
       </c>
     </row>
     <row r="10">
@@ -1269,69 +1269,69 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>24.28000000000036</v>
+        <v>23.34000000000021</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>0.01766007294625871</v>
+        <v>0.02505987474205251</v>
       </c>
       <c r="I10" t="n">
-        <v>0.01766007294625871</v>
+        <v>0.02505987474205251</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>35.21834692646917</v>
+        <v>30.28558771093495</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[4.119604165562535, 66.3170896873758]</t>
+          <t>[5.365466606790001, 55.205708815079895]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>0.02733939626676052</v>
+        <v>0.01834038835927121</v>
       </c>
       <c r="O10" t="n">
-        <v>0.02733939626676052</v>
+        <v>0.01834038835927121</v>
       </c>
       <c r="P10" t="n">
-        <v>-1.207579158136618</v>
+        <v>-1.534631846798618</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[-2.402579366709311, -0.012578949563923914]</t>
+          <t>[-2.6667373075516974, -0.4025263860455386]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>0.04773515350424273</v>
+        <v>0.009002987177638255</v>
       </c>
       <c r="S10" t="n">
-        <v>0.04773515350424273</v>
+        <v>0.009002987177638255</v>
       </c>
       <c r="T10" t="n">
-        <v>65.02228748979903</v>
+        <v>68.64044169097015</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[48.08162796281644, 81.96294701678161]</t>
+          <t>[53.60692234040002, 83.67396104154028]</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>8.526435113509478e-10</v>
+        <v>6.713074540698472e-12</v>
       </c>
       <c r="W10" t="n">
-        <v>8.526435113509478e-10</v>
+        <v>6.713074540698472e-12</v>
       </c>
       <c r="X10" t="n">
-        <v>4.666426426426494</v>
+        <v>5.700660660660713</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.04860860860860949</v>
+        <v>1.495255255255267</v>
       </c>
       <c r="Z10" t="n">
-        <v>9.284244244244377</v>
+        <v>9.90606606606616</v>
       </c>
     </row>
     <row r="11">
@@ -1339,7 +1339,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1355,69 +1355,69 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>24.28000000000036</v>
+        <v>23.34000000000021</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0.02611273194259678</v>
+        <v>0.003920855856629712</v>
       </c>
       <c r="I11" t="n">
-        <v>0.02611273194259678</v>
+        <v>0.003920855856629712</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>24.48780002416033</v>
+        <v>36.41069255197863</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[2.2659880055557835, 46.70961204276488]</t>
+          <t>[8.459564406860977, 64.36182069709629]</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>0.03153731195848142</v>
+        <v>0.01183459955197752</v>
       </c>
       <c r="O11" t="n">
-        <v>0.03153731195848142</v>
+        <v>0.01183459955197752</v>
       </c>
       <c r="P11" t="n">
-        <v>-1.270473905956233</v>
+        <v>-1.006315965113847</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>[-2.5409478119124653, 0.0]</t>
+          <t>[-1.7610529389492324, -0.2515789912784623]</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>0.05000000044112762</v>
+        <v>0.01010638472671777</v>
       </c>
       <c r="S11" t="n">
-        <v>0.05000000044112762</v>
+        <v>0.01010638472671777</v>
       </c>
       <c r="T11" t="n">
-        <v>55.0345027074532</v>
+        <v>52.03123779313636</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[42.578724538273335, 67.49028087663307]</t>
+          <t>[37.47866871706737, 66.58380686920535]</t>
         </is>
       </c>
       <c r="V11" t="n">
-        <v>1.760125378780231e-11</v>
+        <v>5.130520452922838e-09</v>
       </c>
       <c r="W11" t="n">
-        <v>1.760125378780231e-11</v>
+        <v>5.130520452922838e-09</v>
       </c>
       <c r="X11" t="n">
-        <v>4.909469469469542</v>
+        <v>3.738138138138169</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>0.9345345345345422</v>
       </c>
       <c r="Z11" t="n">
-        <v>9.818938938939084</v>
+        <v>6.541741741741795</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/sine_0.5/cosinor_per_day_fixed_period_6_sine_0.5_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sine_0.5/cosinor_per_day_fixed_period_6_sine_0.5_.xlsx
@@ -581,69 +581,69 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>25.66000000000057</v>
+        <v>25.99000000000062</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>4.33450846029082e-05</v>
+        <v>0.000705052995684019</v>
       </c>
       <c r="I2" t="n">
-        <v>4.33450846029082e-05</v>
+        <v>0.000705052995684019</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>48.67481866116682</v>
+        <v>35.76936917446197</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[26.28859745358899, 71.06103986874466]</t>
+          <t>[12.749730237900742, 58.7890081110232]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>7.025854592312974e-05</v>
+        <v>0.003069720704956813</v>
       </c>
       <c r="O2" t="n">
-        <v>7.025854592312974e-05</v>
+        <v>0.003069720704956813</v>
       </c>
       <c r="P2" t="n">
-        <v>1.616395018964117</v>
+        <v>1.83023716155081</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[1.0000264903318854, 2.232763547596349]</t>
+          <t>[1.1132370364071935, 2.5472372866944273]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>3.579216438565069e-06</v>
+        <v>5.739231039303405e-06</v>
       </c>
       <c r="S2" t="n">
-        <v>3.579216438565069e-06</v>
+        <v>5.739231039303405e-06</v>
       </c>
       <c r="T2" t="n">
-        <v>64.18974815894937</v>
+        <v>61.5664825757995</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[49.937325236121225, 78.44217108177752]</t>
+          <t>[48.68626720434396, 74.44669794725503]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>1.005928673691869e-11</v>
+        <v>1.685984685195763e-12</v>
       </c>
       <c r="W2" t="n">
-        <v>1.005928673691869e-11</v>
+        <v>1.685984685195763e-12</v>
       </c>
       <c r="X2" t="n">
-        <v>19.05877877877921</v>
+        <v>18.41933933933978</v>
       </c>
       <c r="Y2" t="n">
-        <v>16.54158158158195</v>
+        <v>15.45351351351388</v>
       </c>
       <c r="Z2" t="n">
-        <v>21.57597597597646</v>
+        <v>21.38516516516568</v>
       </c>
     </row>
     <row r="3">
@@ -667,69 +667,69 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>25.66000000000057</v>
+        <v>25.99000000000062</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>8.549548495495607e-06</v>
+        <v>0.0001034025420248996</v>
       </c>
       <c r="I3" t="n">
-        <v>8.549548495495607e-06</v>
+        <v>0.0001034025420248996</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>54.00960579105124</v>
+        <v>48.21010214227491</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[27.907523110053702, 80.11168847204877]</t>
+          <t>[20.968791951451088, 75.45141233309874]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>0.0001379562071093243</v>
+        <v>0.0008774541810261383</v>
       </c>
       <c r="O3" t="n">
-        <v>0.0001379562071093243</v>
+        <v>0.0008774541810261383</v>
       </c>
       <c r="P3" t="n">
-        <v>1.025184389459733</v>
+        <v>0.6981317007977319</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[0.5471843060306547, 1.5031844728888117]</t>
+          <t>[0.14465791998511612, 1.2516054816103477]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>8.50422465028533e-05</v>
+        <v>0.01458876290479694</v>
       </c>
       <c r="S3" t="n">
-        <v>8.50422465028533e-05</v>
+        <v>0.01458876290479694</v>
       </c>
       <c r="T3" t="n">
-        <v>63.03400959557922</v>
+        <v>72.42519291071392</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[49.1128793830965, 76.95513980806194]</t>
+          <t>[58.417798118327916, 86.43258770309993]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>8.591793942969161e-12</v>
+        <v>1.436628593864953e-13</v>
       </c>
       <c r="W3" t="n">
-        <v>8.591793942969161e-12</v>
+        <v>1.436628593864953e-13</v>
       </c>
       <c r="X3" t="n">
-        <v>21.47323323323371</v>
+        <v>23.10222222222277</v>
       </c>
       <c r="Y3" t="n">
-        <v>19.52112112112155</v>
+        <v>20.81281281281331</v>
       </c>
       <c r="Z3" t="n">
-        <v>23.42534534534587</v>
+        <v>25.39163163163224</v>
       </c>
     </row>
     <row r="4">
@@ -737,7 +737,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -753,69 +753,69 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>25.66000000000057</v>
+        <v>25.99000000000062</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0.001168612257352875</v>
+        <v>0.009380649413096354</v>
       </c>
       <c r="I4" t="n">
-        <v>0.001168612257352875</v>
+        <v>0.009380649413096354</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>48.7723248806798</v>
+        <v>32.03199821445051</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[15.618000278754835, 81.92664948260477]</t>
+          <t>[5.46835446606304, 58.59564196283798]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>0.004855768529598681</v>
+        <v>0.01921040383262551</v>
       </c>
       <c r="O4" t="n">
-        <v>0.004855768529598681</v>
+        <v>0.01921040383262551</v>
       </c>
       <c r="P4" t="n">
-        <v>0.6226580034141929</v>
+        <v>0.798763297309117</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[-0.04402632347373192, 1.2893423303021176]</t>
+          <t>[0.09434212172942402, 1.50318447288881]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>0.0664384078697613</v>
+        <v>0.02715153309963325</v>
       </c>
       <c r="S4" t="n">
-        <v>0.0664384078697613</v>
+        <v>0.02715153309963325</v>
       </c>
       <c r="T4" t="n">
-        <v>66.14079226520606</v>
+        <v>63.02483268497558</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[49.08626308430509, 83.19532144610703]</t>
+          <t>[49.1695563348966, 76.88010903505456]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>6.501410521053685e-10</v>
+        <v>7.499778575947857e-12</v>
       </c>
       <c r="W4" t="n">
-        <v>6.501410521053685e-10</v>
+        <v>7.499778575947857e-12</v>
       </c>
       <c r="X4" t="n">
-        <v>23.11711711711763</v>
+        <v>22.68596596596651</v>
       </c>
       <c r="Y4" t="n">
-        <v>20.39443443443489</v>
+        <v>19.77217217217265</v>
       </c>
       <c r="Z4" t="n">
-        <v>25.83979979980038</v>
+        <v>25.59975975976037</v>
       </c>
     </row>
     <row r="5">
@@ -839,69 +839,69 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>25.66000000000057</v>
+        <v>25.99000000000062</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0.01444873099678223</v>
+        <v>0.0007427512587413476</v>
       </c>
       <c r="I5" t="n">
-        <v>0.01444873099678223</v>
+        <v>0.0007427512587413476</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>33.51829432283844</v>
+        <v>35.25803257173602</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[7.757109277709347, 59.279479367967525]</t>
+          <t>[14.308374447388502, 56.207690696083546]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0.01192807554714137</v>
+        <v>0.001464891024243409</v>
       </c>
       <c r="O5" t="n">
-        <v>0.01192807554714137</v>
+        <v>0.001464891024243409</v>
       </c>
       <c r="P5" t="n">
-        <v>-0.0503157982556921</v>
+        <v>0.3207632138800394</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[-1.0880791372793475, 0.9874475407679633]</t>
+          <t>[-0.37107901213573147, 1.0126054398958102]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>0.9226411107125156</v>
+        <v>0.3553849588282454</v>
       </c>
       <c r="S5" t="n">
-        <v>0.9226411107125156</v>
+        <v>0.3553849588282454</v>
       </c>
       <c r="T5" t="n">
-        <v>59.46103208626666</v>
+        <v>51.91709431504287</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[44.25209829757221, 74.6699658749611]</t>
+          <t>[40.23418601145893, 63.6000026186268]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>5.254958690414924e-10</v>
+        <v>1.489186551850707e-11</v>
       </c>
       <c r="W5" t="n">
-        <v>5.254958690414924e-10</v>
+        <v>1.489186551850707e-11</v>
       </c>
       <c r="X5" t="n">
-        <v>0.205485485485486</v>
+        <v>24.66318318318377</v>
       </c>
       <c r="Y5" t="n">
-        <v>-4.032652652652747</v>
+        <v>21.80142142142194</v>
       </c>
       <c r="Z5" t="n">
-        <v>4.443623623623719</v>
+        <v>27.52494494494561</v>
       </c>
     </row>
     <row r="6">
@@ -925,69 +925,69 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>25.66000000000057</v>
+        <v>25.99000000000062</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>1.961626787272408e-05</v>
+        <v>8.713758647793668e-05</v>
       </c>
       <c r="I6" t="n">
-        <v>1.961626787272408e-05</v>
+        <v>8.713758647793668e-05</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>53.49175211627237</v>
+        <v>45.44581859868965</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[28.759805889925588, 78.22369834261916]</t>
+          <t>[24.709754535453442, 66.18188266192585]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>7.566060806452057e-05</v>
+        <v>6.280566970073842e-05</v>
       </c>
       <c r="O6" t="n">
-        <v>7.566060806452057e-05</v>
+        <v>6.280566970073842e-05</v>
       </c>
       <c r="P6" t="n">
-        <v>-0.2012631930227693</v>
+        <v>0.01886842434588498</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[-0.7421580242714629, 0.33963163822592435]</t>
+          <t>[-0.5534737808126158, 0.5912106295043857]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>0.4574958517167738</v>
+        <v>0.9473542849412213</v>
       </c>
       <c r="S6" t="n">
-        <v>0.4574958517167738</v>
+        <v>0.9473542849412213</v>
       </c>
       <c r="T6" t="n">
-        <v>61.5182266431347</v>
+        <v>55.50382454641883</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[47.36651856108428, 75.66993472518513]</t>
+          <t>[42.52658404825407, 68.4810650445836]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>2.815880861817277e-11</v>
+        <v>4.476152781762721e-11</v>
       </c>
       <c r="W6" t="n">
-        <v>2.815880861817277e-11</v>
+        <v>4.476152781762721e-11</v>
       </c>
       <c r="X6" t="n">
-        <v>0.821941941941958</v>
+        <v>25.91195195195257</v>
       </c>
       <c r="Y6" t="n">
-        <v>-1.387027027027063</v>
+        <v>23.54449449449506</v>
       </c>
       <c r="Z6" t="n">
-        <v>3.030910910910979</v>
+        <v>28.27940940941009</v>
       </c>
     </row>
     <row r="7">
@@ -995,7 +995,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1011,69 +1011,69 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>25.66000000000057</v>
+        <v>25.99000000000062</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.000468459572188884</v>
+        <v>0.003122422229507982</v>
       </c>
       <c r="I7" t="n">
-        <v>0.000468459572188884</v>
+        <v>0.003122422229507982</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>37.41273523372926</v>
+        <v>27.86014352228762</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[14.566464674473096, 60.259005792985434]</t>
+          <t>[6.680215432494634, 49.0400716120806]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>0.00190630969592398</v>
+        <v>0.0110859556563907</v>
       </c>
       <c r="O7" t="n">
-        <v>0.00190630969592398</v>
+        <v>0.0110859556563907</v>
       </c>
       <c r="P7" t="n">
-        <v>-0.3522105877898465</v>
+        <v>-0.9560001668581553</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[-1.0314738642416934, 0.32705268866200043]</t>
+          <t>[-1.6730002920017721, -0.23900004171453837]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>0.3019014184586286</v>
+        <v>0.01010638472671777</v>
       </c>
       <c r="S7" t="n">
-        <v>0.3019014184586286</v>
+        <v>0.01010638472671777</v>
       </c>
       <c r="T7" t="n">
-        <v>56.80067163485395</v>
+        <v>52.49748556101068</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[44.45133259437655, 69.15001067533134]</t>
+          <t>[41.135479446967494, 63.85949167505386]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>5.394351632048711e-12</v>
+        <v>4.709121981250064e-12</v>
       </c>
       <c r="W7" t="n">
-        <v>5.394351632048711e-12</v>
+        <v>4.709121981250064e-12</v>
       </c>
       <c r="X7" t="n">
-        <v>1.43839839839843</v>
+        <v>3.954434434434528</v>
       </c>
       <c r="Y7" t="n">
-        <v>-1.335655655655685</v>
+        <v>0.9886086086086294</v>
       </c>
       <c r="Z7" t="n">
-        <v>4.212452452452546</v>
+        <v>6.920260260260427</v>
       </c>
     </row>
     <row r="8">
@@ -1097,69 +1097,69 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>25.66000000000057</v>
+        <v>25.99000000000062</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0.002331777581335404</v>
+        <v>6.668733320314146e-05</v>
       </c>
       <c r="I8" t="n">
-        <v>0.002331777581335404</v>
+        <v>6.668733320314146e-05</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>32.26910646711382</v>
+        <v>49.95044407191001</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[7.479599914520186, 57.058613019707444]</t>
+          <t>[25.535527521599576, 74.36536062222044]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>0.01189105925537914</v>
+        <v>0.0001599215286449684</v>
       </c>
       <c r="O8" t="n">
-        <v>0.01189105925537914</v>
+        <v>0.0001599215286449684</v>
       </c>
       <c r="P8" t="n">
-        <v>-0.8302106712189241</v>
+        <v>-1.459158149415079</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[-1.484316048542925, -0.17610529389492324]</t>
+          <t>[-2.0755266780473107, -0.8427896207828471]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>0.0140227501178205</v>
+        <v>1.98285215684546e-05</v>
       </c>
       <c r="S8" t="n">
-        <v>0.0140227501178205</v>
+        <v>1.98285215684546e-05</v>
       </c>
       <c r="T8" t="n">
-        <v>67.8212786812839</v>
+        <v>74.06351747403704</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[55.20870577714203, 80.43385158542577]</t>
+          <t>[58.90688101796674, 89.22015393010734]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>4.04121180963557e-14</v>
+        <v>8.544276397515205e-13</v>
       </c>
       <c r="W8" t="n">
-        <v>4.04121180963557e-14</v>
+        <v>8.544276397515205e-13</v>
       </c>
       <c r="X8" t="n">
-        <v>3.390510510510584</v>
+        <v>6.03571571571586</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.7191991991992137</v>
+        <v>3.486146146146229</v>
       </c>
       <c r="Z8" t="n">
-        <v>6.061821821821955</v>
+        <v>8.58528528528549</v>
       </c>
     </row>
     <row r="9">
@@ -1183,69 +1183,69 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>23.34000000000021</v>
+        <v>22.96000000000015</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>2.925909526330095e-06</v>
+        <v>0.006605515987631261</v>
       </c>
       <c r="I9" t="n">
-        <v>2.925909526330095e-06</v>
+        <v>0.006605515987631261</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>44.75533326655705</v>
+        <v>35.37033232594884</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[25.73233050386198, 63.778336029252124]</t>
+          <t>[8.717871925724992, 62.02279272617268]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>2.184983593522816e-05</v>
+        <v>0.01043781907742192</v>
       </c>
       <c r="O9" t="n">
-        <v>2.184983593522816e-05</v>
+        <v>0.01043781907742192</v>
       </c>
       <c r="P9" t="n">
-        <v>-1.295631805084079</v>
+        <v>-1.78621083807708</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[-1.7736318885131563, -0.8176317216550011]</t>
+          <t>[-2.7044741562434673, -0.8679475199106932]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>1.966704909817096e-06</v>
+        <v>0.000300908935719546</v>
       </c>
       <c r="S9" t="n">
-        <v>1.966704909817096e-06</v>
+        <v>0.000300908935719546</v>
       </c>
       <c r="T9" t="n">
-        <v>64.4511484599544</v>
+        <v>65.00504333402611</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[53.69304749628589, 75.20924942362291]</t>
+          <t>[50.28277400726192, 79.7273126607903]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>1.110223024625157e-15</v>
+        <v>1.794786541609028e-11</v>
       </c>
       <c r="W9" t="n">
-        <v>1.110223024625157e-15</v>
+        <v>1.794786541609028e-11</v>
       </c>
       <c r="X9" t="n">
-        <v>4.812852852852895</v>
+        <v>6.527167167167214</v>
       </c>
       <c r="Y9" t="n">
-        <v>3.037237237237264</v>
+        <v>3.171651651651672</v>
       </c>
       <c r="Z9" t="n">
-        <v>6.588468468468527</v>
+        <v>9.882682682682756</v>
       </c>
     </row>
     <row r="10">
@@ -1269,69 +1269,69 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>23.34000000000021</v>
+        <v>22.96000000000015</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>0.02505987474205251</v>
+        <v>3.465867006258172e-05</v>
       </c>
       <c r="I10" t="n">
-        <v>0.02505987474205251</v>
+        <v>3.465867006258172e-05</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>30.28558771093495</v>
+        <v>38.98517274355741</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[5.365466606790001, 55.205708815079895]</t>
+          <t>[21.259869345168724, 56.7104761419461]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>0.01834038835927121</v>
+        <v>5.971502770529824e-05</v>
       </c>
       <c r="O10" t="n">
-        <v>0.01834038835927121</v>
+        <v>5.971502770529824e-05</v>
       </c>
       <c r="P10" t="n">
-        <v>-1.534631846798618</v>
+        <v>-1.408842351159387</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[-2.6667373075516974, -0.4025263860455386]</t>
+          <t>[-1.9245792832802335, -0.8931054190385401]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>0.009002987177638255</v>
+        <v>1.702182001794839e-06</v>
       </c>
       <c r="S10" t="n">
-        <v>0.009002987177638255</v>
+        <v>1.702182001794839e-06</v>
       </c>
       <c r="T10" t="n">
-        <v>68.64044169097015</v>
+        <v>58.44853397581137</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[53.60692234040002, 83.67396104154028]</t>
+          <t>[47.761742578363666, 69.13532537325906]</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>6.713074540698472e-12</v>
+        <v>2.309263891220326e-14</v>
       </c>
       <c r="W10" t="n">
-        <v>6.713074540698472e-12</v>
+        <v>2.309263891220326e-14</v>
       </c>
       <c r="X10" t="n">
-        <v>5.700660660660713</v>
+        <v>5.148188188188222</v>
       </c>
       <c r="Y10" t="n">
-        <v>1.495255255255267</v>
+        <v>3.263583583583606</v>
       </c>
       <c r="Z10" t="n">
-        <v>9.90606606606616</v>
+        <v>7.032792792792838</v>
       </c>
     </row>
     <row r="11">
@@ -1355,69 +1355,69 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>23.34000000000021</v>
+        <v>22.96000000000015</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0.003920855856629712</v>
+        <v>0.003938544290326251</v>
       </c>
       <c r="I11" t="n">
-        <v>0.003920855856629712</v>
+        <v>0.003938544290326251</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>36.41069255197863</v>
+        <v>39.3695995885963</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[8.459564406860977, 64.36182069709629]</t>
+          <t>[10.178502707432912, 68.56069646975969]</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>0.01183459955197752</v>
+        <v>0.009331647019815037</v>
       </c>
       <c r="O11" t="n">
-        <v>0.01183459955197752</v>
+        <v>0.009331647019815037</v>
       </c>
       <c r="P11" t="n">
-        <v>-1.006315965113847</v>
+        <v>-1.169842309444848</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>[-1.7610529389492324, -0.2515789912784623]</t>
+          <t>[-1.9497371824080805, -0.3899474364816147]</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>0.01010638472671777</v>
+        <v>0.004142907235937576</v>
       </c>
       <c r="S11" t="n">
-        <v>0.01010638472671777</v>
+        <v>0.004142907235937576</v>
       </c>
       <c r="T11" t="n">
-        <v>52.03123779313636</v>
+        <v>70.24569368904534</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[37.47866871706737, 66.58380686920535]</t>
+          <t>[54.616928904843945, 85.87445847324673]</t>
         </is>
       </c>
       <c r="V11" t="n">
-        <v>5.130520452922838e-09</v>
+        <v>1.067812505084476e-11</v>
       </c>
       <c r="W11" t="n">
-        <v>5.130520452922838e-09</v>
+        <v>1.067812505084476e-11</v>
       </c>
       <c r="X11" t="n">
-        <v>3.738138138138169</v>
+        <v>4.274834834834863</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.9345345345345422</v>
+        <v>1.42494494494495</v>
       </c>
       <c r="Z11" t="n">
-        <v>6.541741741741795</v>
+        <v>7.124724724724775</v>
       </c>
     </row>
   </sheetData>
